--- a/biology/Botanique/Grecanico_dorato/Grecanico_dorato.xlsx
+++ b/biology/Botanique/Grecanico_dorato/Grecanico_dorato.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le grecanico dorato est un cépage italien de raisins blanc.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il  provient du sud de l'Italie de l’île de Sicile.
 En Sicile, il est classé recommandé en province d'Agrigente, de Palerme et de Trapani. Il est autorisé en province de  Catane et de Syracuse.
@@ -547,7 +561,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, vert blanchâtre à liseré carminé
 Jeunes feuilles duveteuses, vert clair.
@@ -579,7 +595,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque: 30 jours après le chasselas. 
 </t>
@@ -610,7 +628,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille moyenne. La grappe est cylindrique, ailée et longue. Le cépage est de bonne vigueur que l’on peut tailler court en gobelet ou long en taille de Guyot. La production est bonne. 
 Il est souvent vinifié en assemblage avec les cépages  Catarratto bianco comune, Catarratto bianco lucido et  Grillo.
@@ -642,7 +662,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grecanico dorato est connu sous les noms de grecanico bianco, grecanicu biancu, grecanio, recanicu.
 </t>
